--- a/test/output/資料壓縮.xlsx
+++ b/test/output/資料壓縮.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Peggy\research\my\paper\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09372395-6BCC-43B5-802D-7CAEEBCC9C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A87A019-E98D-49C5-AD83-3B029256FEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40F8E360-6DBD-4491-966C-341F48C32E68}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>my</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>E-DSR(off)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LIFETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-ACS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +227,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -236,8 +236,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -332,7 +332,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -341,8 +341,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -437,7 +437,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -446,8 +446,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -536,13 +536,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -551,7 +551,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -652,6 +652,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -703,20 +758,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>NETWORK</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> LIFETIME(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8794473029614085E-2"/>
+              <c:y val="0.26574246722672434"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -754,14 +863,24 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77133764640767644"/>
+          <c:y val="0.35965384296678132"/>
+          <c:w val="0.22857029948527258"/>
+          <c:h val="0.28963053909250075"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -904,7 +1023,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16356624482180207"/>
+          <c:y val="0.1766990291262136"/>
+          <c:w val="0.55347157485613929"/>
+          <c:h val="0.65590259955369645"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -923,7 +1052,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -932,7 +1061,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1028,7 +1157,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1037,7 +1166,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1133,7 +1262,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1142,7 +1271,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1232,13 +1361,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1247,7 +1376,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1348,6 +1477,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1400,20 +1584,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>NETWORK LIFETIME(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.214882598815633E-2"/>
+              <c:y val="0.25660372550518562"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1458,7 +1692,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74133547165425395"/>
+          <c:y val="0.37914823753826893"/>
+          <c:w val="0.25866441149886638"/>
+          <c:h val="0.29051203977165868"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1608,7 +1852,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17842712529248567"/>
+          <c:y val="0.1766990291262136"/>
+          <c:w val="0.55428381411350525"/>
+          <c:h val="0.64665618254028923"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1627,7 +1881,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1636,7 +1890,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1732,7 +1986,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1741,7 +1995,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1837,7 +2091,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1846,7 +2100,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -1936,13 +2190,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>ER-ACS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -1951,7 +2205,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -2052,6 +2306,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>感測器總數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2104,20 +2413,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>NETWORK LIFETIME(S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2162,7 +2513,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74180598477857029"/>
+          <c:y val="0.40226428007178716"/>
+          <c:w val="0.25819401522142976"/>
+          <c:h val="0.30654165504516301"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3904,13 +4265,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>268606</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>93889</xdr:rowOff>
+      <xdr:rowOff>93888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166279</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3940,15 +4301,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>607695</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>116204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>521969</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3978,13 +4339,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>531494</xdr:colOff>
+      <xdr:colOff>554354</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
@@ -4315,18 +4676,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24F1013-39B8-4661-8160-24C663252F7A}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="C2:I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1">
@@ -4351,7 +4712,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -4380,7 +4741,7 @@
         <v>29481</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -4407,7 +4768,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -4434,10 +4795,10 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>59811</v>
@@ -4461,9 +4822,9 @@
         <v>37001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -4488,7 +4849,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.75</v>
       </c>
@@ -4517,7 +4878,7 @@
         <v>13718</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
@@ -4544,7 +4905,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -4571,10 +4932,10 @@
         <v>621</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>35711</v>
@@ -4598,9 +4959,9 @@
         <v>19241</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -4625,7 +4986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4654,7 +5015,7 @@
         <v>5231</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -4681,7 +5042,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -4708,10 +5069,10 @@
         <v>791</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>26311</v>
@@ -4735,9 +5096,9 @@
         <v>10851</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
